--- a/data/trans_dic/IP12_R2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP12_R2_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 15,97</t>
+          <t>4,61; 16,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 13,42</t>
+          <t>3,86; 14,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 12,55</t>
+          <t>5,09; 12,66</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 10,2</t>
+          <t>4,34; 10,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,26</t>
+          <t>3,36; 9,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 9,1</t>
+          <t>4,56; 9,07</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,83</t>
+          <t>2,36; 7,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,49</t>
+          <t>2,83; 8,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,98</t>
+          <t>3,02; 6,93</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 9,62</t>
+          <t>3,68; 9,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,48</t>
+          <t>2,22; 6,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,02</t>
+          <t>3,61; 7,04</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,17</t>
+          <t>4,66; 7,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,55</t>
+          <t>3,75; 6,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 6,59</t>
+          <t>4,58; 6,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP12_R2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP12_R2_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 16,21</t>
+          <t>3,62; 13,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 14,4</t>
+          <t>4,54; 16,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 12,66</t>
+          <t>5,12; 13,41</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,27%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 10,69</t>
+          <t>3,27; 8,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,02</t>
+          <t>4,14; 10,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 9,07</t>
+          <t>4,52; 8,69</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,41</t>
+          <t>2,91; 8,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 8,58</t>
+          <t>2,23; 7,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,93</t>
+          <t>3,14; 6,95</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 9,33</t>
+          <t>2,04; 6,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,14</t>
+          <t>3,71; 9,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,04</t>
+          <t>3,24; 6,85</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,9</t>
+          <t>3,67; 6,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,62</t>
+          <t>4,53; 7,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 6,72</t>
+          <t>4,51; 6,68</t>
         </is>
       </c>
     </row>
